--- a/180128_穿梭子车V1.1.xlsx
+++ b/180128_穿梭子车V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Ref:
 编号</t>
@@ -235,10 +235,6 @@
   </si>
   <si>
     <t>子车在母车上，如果母车不在正确的轨道里面，子车碰到母车的穿梭车超限立即停车。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,12 +290,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对于子母车配套的情况，充电需要来回测试位置，尽量保证在有零点和没有零点的情况下，从AB面不同方向到母车，然后到充电工位都能正常充电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>子车送货入库时遮挡子车的前进方向，此时子车报重入故障，（故障复位，相应操作以后）子车继续入库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子车出库时遮挡子车的托盘光电，此时子车报空取故障，同时报警，子车取货前有货故障（故障复位，相应操作以后）子车继续出库；                                 子车出库时遮挡将相应货位托盘拿走，此时子车报空取故障，同时报警：子车取货位置无货有障（故障复位，相应操作以后）子车继续出库；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于轨道两边都可以出入的巷道，需要设置轨道孔检测，保证子车位置编码器的准确性，一般误差设置在10cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应于一个库有多种托盘，则需要通过子车托盘对托盘定位，确保托盘和子车的位置准确度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
     <t>3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于子母车配套的情况，充电需要来回测试位置，尽量保证在有零点和没有零点的情况下，从AB面不同方向到母车，然后到充电工位都能正常充电。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1247,10 +1273,10 @@
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
     </row>
@@ -1259,58 +1285,74 @@
         <v>12</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
+    <row r="32" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
+    <row r="34" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
+    <row r="35" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>

--- a/180128_穿梭子车V1.1.xlsx
+++ b/180128_穿梭子车V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>测试人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据图纸，检查相应线路，确保线路没有松动，没有短路。（正常小车，都有出厂设置，都会有程序在PLC里面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -326,6 +322,10 @@
   </si>
   <si>
     <t>3.10</t>
+  </si>
+  <si>
+    <t>根据图纸，检查相应线路，确保线路没有松动，没有短路。（正常小车，都有出厂设置，都会有程序在PLC里面）123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="6"/>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="4" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="6"/>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>27</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>28</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>29</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="8" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>30</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>32</v>
@@ -1069,7 +1069,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>15</v>
@@ -1130,7 +1130,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="26"/>
     </row>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1230,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
@@ -1274,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>41</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="31" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="6"/>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="32" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="33" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="34" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="35" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>

--- a/180128_穿梭子车V1.1.xlsx
+++ b/180128_穿梭子车V1.1.xlsx
@@ -324,7 +324,7 @@
     <t>3.10</t>
   </si>
   <si>
-    <t>根据图纸，检查相应线路，确保线路没有松动，没有短路。（正常小车，都有出厂设置，都会有程序在PLC里面）123</t>
+    <t>根据图纸，检查相应线路，确保线路没有松动，没有短路。（正常小车，都有出厂设置，都会有程序在PLC里面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
